--- a/biology/Médecine/Hespéridine/Hespéridine.xlsx
+++ b/biology/Médecine/Hespéridine/Hespéridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ridine</t>
+          <t>Hespéridine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hespéridine est un flavonoïde naturel contenu dans le flavédo d'orange et utilisé pour le traitement de la fragilité des capillaires sanguins.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ridine</t>
+          <t>Hespéridine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition, structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hespéridine est un flavonoïde, plus précisément c’est un hétéroside flavonoïque (et même plus spécifiquement un rutinoside), constitué de deux parties :
 Une partie osidique : le rutinose
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ridine</t>
+          <t>Hespéridine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Principales sources d’hespéridine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hespéridine est un des principaux Citroflavonoides présents chez les espèces du genre Citrus, (appartenant à la famille des Rutacées).
 Les espèces du genre Citrus, (telles que l’oranger doux, le citronnier, le limettier …) sont des arbres ou des arbustes, cultivés abondamment dans les régions tempérées chaudes (Bassin méditerranéen, Floride, Californie, Australie…).
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ridine</t>
+          <t>Hespéridine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve l’hespéridine dans la composition de certaines spécialités telles que :
 CIRKAN® comprimé (petit houx, hespéridine méthylchalcone, acide ascorbique)
@@ -611,18 +629,201 @@
 En France, l’hespéridine n’est commercialisée que sous forme d’associations, notamment avec la vitamine C (ou acide ascorbique). Notons qu’elle n’est pas utilisée telle quelle, mais sous forme de dérivé  hémi-synthétique : l’hespéridoside méthylchalcone obtenu par l’ouverture du cycle.
 Cela permet de passer d’un composé amer (hésperidine) à un composé sucré (hésperidine methylchalcone).
 L'hesperidine est utilisée pour ses propriétés : vasculoprotectrice, veinotonique et anti-hémorroïdaire.
-Activité vasculoprotectrice
-L'hespéridine fait partie des bioflavonoïdes : c'est ainsi qu'on appelle les flavonoïdes ayant une activité vitaminique P. Les facteurs vitaminiques P (pour « perméabilité ») sont des cofacteurs de la vitamine C (acide ascorbique).
-Effet vasculoprotecteur direct
-Elles sont capables de diminuer la perméabilité des capillaires et d’augmenter leur résistance. En effet par fixation sur le collagène de la membrane basale, elles assurent une meilleure stabilité de celle-ci. Cette action est réalisée avec la participation de la vitamine C. D'où leur utilisation dans la prévention des accidents hémorragiques d’origine hypertensive, diabétique (hémorragies rétiniennes), dans les purpuras, ainsi que dans les manifestations de l’insuffisance veineuse.
-Effet vasculoprotecteur indirect
-La principale propriété des flavonoïdes est leur capacité antioxydante. Cette faculté leur permet de capter les radicaux libres, notamment l'ion superoxyde (produit lors d'une inflammation). Ces radicaux libres ont la propriété d'attirer par chimiotactisme les leucocytes. Ceux-ci sont alors "activés" et libèrent un certain nombre d'enzymes, dont l'élastase, responsable de la dégradation de l'élastine présente au niveau de la membrane basale des vaisseaux, ce qui entraine une fragilité et des lésions vasculaires. Ces lésions vasculaires vont entrainer une augmentation de la perméabilité vasculaire responsable de la fuite des constituants du plasma en dehors des vaisseaux (hématome).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hespéridine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9ridine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activité vasculoprotectrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hespéridine fait partie des bioflavonoïdes : c'est ainsi qu'on appelle les flavonoïdes ayant une activité vitaminique P. Les facteurs vitaminiques P (pour « perméabilité ») sont des cofacteurs de la vitamine C (acide ascorbique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespéridine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9ridine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activité vasculoprotectrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Effet vasculoprotecteur direct</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont capables de diminuer la perméabilité des capillaires et d’augmenter leur résistance. En effet par fixation sur le collagène de la membrane basale, elles assurent une meilleure stabilité de celle-ci. Cette action est réalisée avec la participation de la vitamine C. D'où leur utilisation dans la prévention des accidents hémorragiques d’origine hypertensive, diabétique (hémorragies rétiniennes), dans les purpuras, ainsi que dans les manifestations de l’insuffisance veineuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespéridine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9ridine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Activité vasculoprotectrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Effet vasculoprotecteur indirect</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale propriété des flavonoïdes est leur capacité antioxydante. Cette faculté leur permet de capter les radicaux libres, notamment l'ion superoxyde (produit lors d'une inflammation). Ces radicaux libres ont la propriété d'attirer par chimiotactisme les leucocytes. Ceux-ci sont alors "activés" et libèrent un certain nombre d'enzymes, dont l'élastase, responsable de la dégradation de l'élastine présente au niveau de la membrane basale des vaisseaux, ce qui entraine une fragilité et des lésions vasculaires. Ces lésions vasculaires vont entrainer une augmentation de la perméabilité vasculaire responsable de la fuite des constituants du plasma en dehors des vaisseaux (hématome).
 La captation des radicaux libres par les flavonoïdes entraîne donc une diminution du chimiotactisme des leucocytes et une inhibition des élastases ainsi libérées, ce qui augmente la résistance des vaisseaux et diminue leur perméabilité.
-Activité Veinotonique
-L'hespéridine est un inhibiteur des COMT(Catéchol-O-Méthyl Transférase), qui sont les enzymes de dégradation des catécholamines. Une inhibition de la dégradation est suivie d'une augmentation de la concentration des catécholamines, dont fait partie l'adrénaline. L'adrénaline provoque entre autres une vasoconstriction des vaisseaux et favorise donc le retour veineux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespéridine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9ridine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Activité Veinotonique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hespéridine est un inhibiteur des COMT(Catéchol-O-Méthyl Transférase), qui sont les enzymes de dégradation des catécholamines. Une inhibition de la dégradation est suivie d'une augmentation de la concentration des catécholamines, dont fait partie l'adrénaline. L'adrénaline provoque entre autres une vasoconstriction des vaisseaux et favorise donc le retour veineux.
 C'est pourquoi l'hespéridine entre dans la composition des spécialités ayant pour indications le traitement des insuffisances veineuses.
-Activité anti-hémorroïdaire
-L'effet anti-hémorroïdaire est obtenu par l'association de l'effet vasculoprotecteur et de l'effet veinotonique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespéridine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9ridine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Activité anti-hémorroïdaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet anti-hémorroïdaire est obtenu par l'association de l'effet vasculoprotecteur et de l'effet veinotonique.
 </t>
         </is>
       </c>
